--- a/Subtask5/05-translations/04-SHACL/translations.xlsx
+++ b/Subtask5/05-translations/04-SHACL/translations.xlsx
@@ -666,10 +666,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="H19 D16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.59"/>
@@ -1046,7 +1046,7 @@
       <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -1455,6 +1455,9 @@
       <c r="G18" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L18" s="0" t="s">
         <v>46</v>
       </c>
@@ -1480,9 +1483,7 @@
       <c r="G19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="L19" s="0" t="s">
         <v>46</v>
       </c>
